--- a/4_aviation/historical_fuel_use/data/data.xlsx
+++ b/4_aviation/historical_fuel_use/data/data.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/historical_fuel_use/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39722EA8-3E6A-D343-827D-8D58D42398A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFAC49C-961D-3641-9326-76A63DC184C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{BD6395E2-BE37-D04E-86F4-608337206BF2}"/>
+    <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{BD6395E2-BE37-D04E-86F4-608337206BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Aviation CO2" sheetId="2" r:id="rId1"/>
     <sheet name="Fuel Use USA" sheetId="1" r:id="rId2"/>
     <sheet name="Fuel Use USSR" sheetId="3" r:id="rId3"/>
-    <sheet name="Fuel Use Global (IEA)" sheetId="5" r:id="rId4"/>
+    <sheet name="Fuel Use Global (EIA)" sheetId="5" r:id="rId4"/>
     <sheet name="Fuel Use Global (IPCC)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="INT_Export_01_10_2024_09_58_09" localSheetId="3">'Fuel Use Global (IEA)'!$A$1:$AQ$231</definedName>
+    <definedName name="INT_Export_01_10_2024_09_58_09" localSheetId="3">'Fuel Use Global (EIA)'!$A$1:$AQ$231</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="251">
   <si>
     <t>Year</t>
   </si>
@@ -141,15 +141,6 @@
     <t>https://www.statista.com/statistics/1186820/co2-emissions-commercial-aviation-worldwide/</t>
   </si>
   <si>
-    <t>Domestic operations [mgal]</t>
-  </si>
-  <si>
-    <t>International operations [mgal]</t>
-  </si>
-  <si>
-    <t>Total [mgal]</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.bts.gov/content/certificated-air-carrier-fuel-consumption-and-travel </t>
   </si>
   <si>
@@ -157,84 +148,6 @@
   </si>
   <si>
     <t>https://www.cia.gov/readingroom/docs/CIA-RDP86T00591R000200190003-0.pdf</t>
-  </si>
-  <si>
-    <t>1971.0496697552737, 112.12460514217516</t>
-  </si>
-  <si>
-    <t>1972.0234425015872, 117.84796886979109</t>
-  </si>
-  <si>
-    <t>1972.9346650262007, 121.46024285567502</t>
-  </si>
-  <si>
-    <t>1974.0670658935048, 118.13250361596239</t>
-  </si>
-  <si>
-    <t>1975.0102037321474, 118.72791891813564</t>
-  </si>
-  <si>
-    <t>1975.9219479037954, 119.02193815584599</t>
-  </si>
-  <si>
-    <t>1977.0212478956282, 126.25254566387488</t>
-  </si>
-  <si>
-    <t>1977.9323755753264, 130.46813869488125</t>
-  </si>
-  <si>
-    <t>1979.0318178345324, 136.79376763522646</t>
-  </si>
-  <si>
-    <t>1980.0064441850845, 137.08725995674016</t>
-  </si>
-  <si>
-    <t>1980.9500088258462, 134.96773955586235</t>
-  </si>
-  <si>
-    <t>1981.9873276654712, 136.46734305142436</t>
-  </si>
-  <si>
-    <t>1982.961669481277, 138.5707925083055</t>
-  </si>
-  <si>
-    <t>1983.9348257356407, 148.21573002921747</t>
-  </si>
-  <si>
-    <t>1984.940229261237, 152.73219220849018</t>
-  </si>
-  <si>
-    <t>1985.9450162948833, 161.17022818105892</t>
-  </si>
-  <si>
-    <t>1986.9187416187392, 167.1952514312361</t>
-  </si>
-  <si>
-    <t>1987.9551120092103, 174.72804537802284</t>
-  </si>
-  <si>
-    <t>1988.9601835776027, 181.35612421522416</t>
-  </si>
-  <si>
-    <t>1989.9033214162453, 181.95153951739744</t>
-  </si>
-  <si>
-    <t>1990.9415412825665, 177.71961208429602</t>
-  </si>
-  <si>
-    <t>1991.9479406797745, 175.90122428978282</t>
-  </si>
-  <si>
-    <t>1992.9850698295688, 178.60746587558978</t>
-  </si>
-  <si>
-    <t>1993.9269746843113, 187.04602876435516</t>
-  </si>
-  <si>
-    <t>1994.9323782099075, 191.56249094362784</t>
-  </si>
-  <si>
-    <t>1995.937260088469, 199.3972078710741</t>
   </si>
   <si>
     <t>https://archive.ipcc.ch/ipccreports/sres/aviation/137.htm#img915</t>
@@ -941,6 +854,30 @@
   <si>
     <t>https://www.eia.gov/international/data/world/petroleum-and-other-liquids/annual-refined-petroleum-products-consumption?pd=5&amp;p=0000000000g&amp;u=1&amp;f=A&amp;v=mapbubble&amp;a=-&amp;i=none&amp;vo=value&amp;&amp;t=C&amp;g=none&amp;l=249-ruvvvvvfvtvnvv1vrvvvvfvvvvvvfvvvou20evvvvvvvvvvnvuvs0008&amp;s=94694400000&amp;e=1640995200000&amp;ev=false</t>
   </si>
+  <si>
+    <t>Fuel Burned [Tg]</t>
+  </si>
+  <si>
+    <t>Domestic operations [Mgal]</t>
+  </si>
+  <si>
+    <t>International operations [Mgal]</t>
+  </si>
+  <si>
+    <t>Total [Mgal]</t>
+  </si>
+  <si>
+    <t>Fuel Burned [Mt]</t>
+  </si>
+  <si>
+    <t>Fuel Burned [Gl]</t>
+  </si>
+  <si>
+    <t>Total [Gl]</t>
+  </si>
+  <si>
+    <t>Total Production [bl/day]</t>
+  </si>
 </sst>
 </file>
 
@@ -970,10 +907,10 @@
       <name val="Helv"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1355,7 +1292,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1563,7 +1500,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1971.21802660719</v>
+        <v>1971</v>
       </c>
       <c r="B19">
         <v>341.119883307495</v>
@@ -1629,7 +1566,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1979.92438563327</v>
+        <v>1980</v>
       </c>
       <c r="B25">
         <v>404.32737629120498</v>
@@ -2133,32 +2070,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77F6CED-1AEE-514E-8361-6F742FAAAD36}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="161" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2">
         <v>1960</v>
       </c>
@@ -2172,11 +2118,15 @@
         <f>SUM(B2:C2)</f>
         <v>2520</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+      <c r="E2">
+        <f>(D2*3.785)/1000</f>
+        <v>9.5382000000000016</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3">
         <v>1965</v>
       </c>
@@ -2190,11 +2140,15 @@
         <f t="shared" ref="D3:D40" si="0">SUM(B3:C3)</f>
         <v>5169</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <f t="shared" ref="E3:E40" si="1">(D3*3.785)/1000</f>
+        <v>19.564665000000002</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -2208,11 +2162,15 @@
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>38.228499999999997</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1975</v>
       </c>
@@ -2226,11 +2184,15 @@
         <f t="shared" si="0"/>
         <v>9507</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>35.983995</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1980</v>
       </c>
@@ -2244,11 +2206,15 @@
         <f t="shared" si="0"/>
         <v>10266.539467000001</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>38.858851882595005</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -2262,11 +2228,15 @@
         <f t="shared" si="0"/>
         <v>12602.936017</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>47.702112824345001</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1990</v>
       </c>
@@ -2280,11 +2250,15 @@
         <f t="shared" si="0"/>
         <v>16149.698134</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>61.126607437190003</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1991</v>
       </c>
@@ -2298,11 +2272,15 @@
         <f t="shared" si="0"/>
         <v>15247.870715000001</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>57.71319065627501</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1992</v>
       </c>
@@ -2316,11 +2294,15 @@
         <f t="shared" si="0"/>
         <v>15677.079637000001</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>59.337746426045008</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1993</v>
       </c>
@@ -2334,11 +2316,15 @@
         <f t="shared" si="0"/>
         <v>16071.776341000001</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>60.831673450685003</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1994</v>
       </c>
@@ -2352,11 +2338,15 @@
         <f t="shared" si="0"/>
         <v>16825.957789</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>63.686250231365001</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1995</v>
       </c>
@@ -2370,11 +2360,15 @@
         <f t="shared" si="0"/>
         <v>17323.134898</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>65.568065588930011</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1996</v>
       </c>
@@ -2388,11 +2382,15 @@
         <f t="shared" si="0"/>
         <v>17845.397849000001</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>67.544830858465005</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1997</v>
       </c>
@@ -2406,11 +2404,15 @@
         <f t="shared" si="0"/>
         <v>18619.227178000001</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>70.473774868730004</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -2424,11 +2426,15 @@
         <f t="shared" si="0"/>
         <v>18218.596245000001</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>68.957386787324992</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1999</v>
       </c>
@@ -2442,11 +2448,15 @@
         <f t="shared" si="0"/>
         <v>19767.061291999999</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>74.818326990220001</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -2460,11 +2470,15 @@
         <f t="shared" si="0"/>
         <v>19026.2</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>72.014167</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -2478,11 +2492,15 @@
         <f t="shared" si="0"/>
         <v>18067.7</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>68.386244500000004</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -2496,11 +2514,15 @@
         <f t="shared" si="0"/>
         <v>16858.800000000003</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>63.810558000000015</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2003</v>
       </c>
@@ -2514,11 +2536,15 @@
         <f t="shared" si="0"/>
         <v>16868</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>63.845380000000006</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2004</v>
       </c>
@@ -2532,11 +2558,15 @@
         <f t="shared" si="0"/>
         <v>18144.7</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>68.677689500000014</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2005</v>
       </c>
@@ -2550,11 +2580,15 @@
         <f t="shared" si="0"/>
         <v>18324.5</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>69.3582325</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2006</v>
       </c>
@@ -2568,11 +2602,15 @@
         <f t="shared" si="0"/>
         <v>18239.7</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>69.037264500000006</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2007</v>
       </c>
@@ -2586,11 +2624,15 @@
         <f t="shared" si="0"/>
         <v>18426.8</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>69.745437999999993</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2008</v>
       </c>
@@ -2604,11 +2646,15 @@
         <f t="shared" si="0"/>
         <v>17978.3</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>68.0478655</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2009</v>
       </c>
@@ -2622,11 +2668,15 @@
         <f t="shared" si="0"/>
         <v>16234</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>61.445689999999999</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -2640,11 +2690,15 @@
         <f t="shared" si="0"/>
         <v>16303.2</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>61.707612000000012</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2011</v>
       </c>
@@ -2658,11 +2712,15 @@
         <f t="shared" si="0"/>
         <v>16349.3</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>61.8821005</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -2676,11 +2734,15 @@
         <f t="shared" si="0"/>
         <v>15859.2</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>60.027072000000004</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -2694,11 +2756,15 @@
         <f t="shared" si="0"/>
         <v>15904.7</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>60.199289500000006</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -2712,11 +2778,15 @@
         <f t="shared" si="0"/>
         <v>16192.1</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>61.287098499999999</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -2730,11 +2800,15 @@
         <f t="shared" si="0"/>
         <v>16729.5</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>63.321157499999998</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2016</v>
       </c>
@@ -2748,11 +2822,15 @@
         <f t="shared" si="0"/>
         <v>17044.599999999999</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>64.51381099999999</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -2766,11 +2844,15 @@
         <f t="shared" si="0"/>
         <v>17295.2</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>65.462332000000004</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2784,11 +2866,15 @@
         <f t="shared" si="0"/>
         <v>17868.599999999999</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>67.632650999999996</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -2802,11 +2888,15 @@
         <f t="shared" si="0"/>
         <v>18269.099999999999</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>69.148543500000002</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -2820,11 +2910,15 @@
         <f t="shared" si="0"/>
         <v>10279.599999999999</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>38.90828599999999</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2838,11 +2932,15 @@
         <f t="shared" si="0"/>
         <v>13785.4</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>52.177739000000003</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -2856,14 +2954,18 @@
         <f t="shared" si="0"/>
         <v>16657.900000000001</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>8</v>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>63.050151500000005</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{AEBC59C3-B628-E34E-A63E-6DFA98D0FB4C}"/>
-    <hyperlink ref="E3:E40" r:id="rId2" display="https://www.bts.gov/content/certificated-air-carrier-fuel-consumption-and-travel " xr:uid="{59309E03-46CA-5F4C-8AB2-E6E0EE5AADEA}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{AEBC59C3-B628-E34E-A63E-6DFA98D0FB4C}"/>
+    <hyperlink ref="F3:F40" r:id="rId2" display="https://www.bts.gov/content/certificated-air-carrier-fuel-consumption-and-travel " xr:uid="{59309E03-46CA-5F4C-8AB2-E6E0EE5AADEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2871,24 +2973,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6225810B-7543-C14E-8E71-D7A034B6EE53}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
       </c>
       <c r="D1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1960</v>
       </c>
@@ -2896,108 +3010,176 @@
         <v>280</v>
       </c>
       <c r="C2">
-        <f>B2*365</f>
-        <v>102200</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f>B2*1000</f>
+        <v>280000</v>
+      </c>
+      <c r="D2">
+        <f>(C2*365*159)/1000000000</f>
+        <v>16.2498</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1965</v>
       </c>
       <c r="B3">
         <v>295</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">B3*1000</f>
+        <v>295000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">(C3*365*159)/1000000000</f>
+        <v>17.120325000000001</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1970</v>
       </c>
       <c r="B4">
         <v>405</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>405000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>23.504175</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1975</v>
       </c>
       <c r="B5">
         <v>505</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>505000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>29.307675</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1978</v>
       </c>
       <c r="B6">
         <v>555</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>555000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>32.209425000000003</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1980</v>
       </c>
       <c r="B7">
         <v>565</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>565000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>32.789774999999999</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1981</v>
       </c>
       <c r="B8">
         <v>575</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>575000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>33.370125000000002</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1982</v>
       </c>
       <c r="B9">
         <v>565</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>565000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>32.789774999999999</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1983</v>
       </c>
       <c r="B10">
         <v>565</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="1"/>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>565000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>32.789774999999999</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9F7065EC-9D14-CC4C-B965-6A6201E05E29}"/>
-    <hyperlink ref="D3:D10" r:id="rId2" display="https://www.cia.gov/readingroom/docs/CIA-RDP86T00591R000200190003-0.pdf" xr:uid="{C758613A-C5FF-3443-8586-1579A24B6728}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9F7065EC-9D14-CC4C-B965-6A6201E05E29}"/>
+    <hyperlink ref="E3:E10" r:id="rId2" display="https://www.cia.gov/readingroom/docs/CIA-RDP86T00591R000200190003-0.pdf" xr:uid="{C758613A-C5FF-3443-8586-1579A24B6728}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3019,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>1980</v>
@@ -3153,7 +3335,7 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>66.527919738461506</v>
@@ -3282,12 +3464,12 @@
         <v>65.765051362507506</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3416,12 +3598,12 @@
         <v>16</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>369.61955012307601</v>
@@ -3550,12 +3732,12 @@
         <v>287</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>32.307692307692299</v>
@@ -3684,12 +3866,12 @@
         <v>9.2451699999999999</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>127.989657415384</v>
@@ -3818,12 +4000,12 @@
         <v>134</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3952,12 +4134,12 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>63.554884707692302</v>
@@ -4086,12 +4268,12 @@
         <v>68.118234064360195</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>719.87222423076901</v>
@@ -4220,30 +4402,30 @@
         <v>587</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>161.53846153846101</v>
@@ -4336,12 +4518,12 @@
         <v>37</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4452,12 +4634,12 @@
         <v>80.309264307078706</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1753.8461538461499</v>
@@ -4586,12 +4768,12 @@
         <v>2826</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>138.461538461538</v>
@@ -4720,30 +4902,30 @@
         <v>404</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>507.692307692307</v>
@@ -4836,12 +5018,12 @@
         <v>468</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>380.285862507692</v>
@@ -4970,12 +5152,12 @@
         <v>308</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>227.54919498461501</v>
@@ -5104,12 +5286,12 @@
         <v>345</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>84.670329692307604</v>
@@ -5238,30 +5420,30 @@
         <v>114.937106954523</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>1200</v>
@@ -5354,12 +5536,12 @@
         <v>121</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>369.230769230769</v>
@@ -5488,12 +5670,12 @@
         <v>1464</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>11.834635615384601</v>
@@ -5622,12 +5804,12 @@
         <v>10.9489159243542</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5756,12 +5938,12 @@
         <v>16</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>26.611004538461501</v>
@@ -5890,12 +6072,12 @@
         <v>14.223206210275199</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6024,12 +6206,12 @@
         <v>3.7656784729692299</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>87.495442938461494</v>
@@ -6158,30 +6340,30 @@
         <v>77.999999999999901</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>32.307692307692299</v>
@@ -6274,12 +6456,12 @@
         <v>8.6895598341266993</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6408,12 +6590,12 @@
         <v>12.089667001234</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>1788</v>
@@ -6542,12 +6724,12 @@
         <v>3464.00189155107</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6676,12 +6858,12 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>11.9847477230769</v>
@@ -6810,12 +6992,12 @@
         <v>114</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6944,12 +7126,12 @@
         <v>249.143705415135</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B31">
         <v>4.0346857384615298</v>
@@ -7078,12 +7260,12 @@
         <v>30.226493100428399</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>54.919502907692298</v>
@@ -7212,12 +7394,12 @@
         <v>163</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>1.3865893846153801</v>
@@ -7346,12 +7528,12 @@
         <v>8.0597141408608994</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7480,12 +7662,12 @@
         <v>60.369367499331801</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7614,12 +7796,12 @@
         <v>238.78959394017201</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>66.3970967538461</v>
@@ -7748,12 +7930,12 @@
         <v>7</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>3784.6153846153802</v>
@@ -7882,12 +8064,12 @@
         <v>3741</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8016,12 +8198,12 @@
         <v>31.637420728507699</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B39">
         <v>16.289592738461501</v>
@@ -8150,12 +8332,12 @@
         <v>16.119388456176999</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>19.433198399999998</v>
@@ -8284,12 +8466,12 @@
         <v>32.1</v>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>138.461538461538</v>
@@ -8418,12 +8600,12 @@
         <v>813</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>3035.5565884153798</v>
@@ -8552,12 +8734,12 @@
         <v>36822.194199243298</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>433.28100470769198</v>
@@ -8686,12 +8868,12 @@
         <v>986</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8820,12 +9002,12 @@
         <v>6.2279641130002803</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>39.090769569230702</v>
@@ -8954,12 +9136,12 @@
         <v>41</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:44">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>102.458049507692</v>
@@ -9088,12 +9270,12 @@
         <v>121.90736447616599</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B47">
         <v>6.1538461384615299</v>
@@ -9222,12 +9404,12 @@
         <v>9.3743100826358994</v>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B48">
         <v>16.410256430769198</v>
@@ -9356,12 +9538,12 @@
         <v>113</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B49">
         <v>77.948717953846099</v>
@@ -9490,30 +9672,30 @@
         <v>187.39670607897801</v>
       </c>
       <c r="AR49" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J50" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K50" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L50" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M50" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N50">
         <v>83.076923076922995</v>
@@ -9606,12 +9788,12 @@
         <v>193.13484715597801</v>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>181.068280015384</v>
@@ -9740,12 +9922,12 @@
         <v>22</v>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:44">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>131.86813186153799</v>
@@ -9874,51 +10056,51 @@
         <v>293.56487622237597</v>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:44">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O53">
         <v>132</v>
@@ -10008,12 +10190,12 @@
         <v>166</v>
       </c>
       <c r="AR53" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:44">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>784.61538461538396</v>
@@ -10142,12 +10324,12 @@
         <v>462</v>
       </c>
       <c r="AR54" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:44">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>123.076923092307</v>
@@ -10276,12 +10458,12 @@
         <v>80.601664992705395</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:44">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10410,12 +10592,12 @@
         <v>0.55280329842098397</v>
       </c>
       <c r="AR56" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:44">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B57">
         <v>26.121112938461501</v>
@@ -10544,12 +10726,12 @@
         <v>228</v>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:44">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>143.433497953846</v>
@@ -10678,12 +10860,12 @@
         <v>173</v>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:44">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>336.44859812307601</v>
@@ -10812,12 +10994,12 @@
         <v>1068.4511639218099</v>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:44">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B60">
         <v>21.683014984615301</v>
@@ -10946,12 +11128,12 @@
         <v>162.22687954156299</v>
       </c>
       <c r="AR60" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:44">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -11080,36 +11262,36 @@
         <v>30</v>
       </c>
       <c r="AR61" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:44">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O62" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P62">
         <v>32.219419924337899</v>
@@ -11196,30 +11378,30 @@
         <v>12.0897401071825</v>
       </c>
       <c r="AR62" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:44">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H63" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K63" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L63" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M63" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N63">
         <v>12</v>
@@ -11312,12 +11494,12 @@
         <v>52</v>
       </c>
       <c r="AR63" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:44">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>0.88188886153846102</v>
@@ -11446,12 +11628,12 @@
         <v>1.00631731974358</v>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:44">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>74.060822907692298</v>
@@ -11580,12 +11762,12 @@
         <v>744.554722718888</v>
       </c>
       <c r="AR65" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:44">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -11714,12 +11896,12 @@
         <v>0</v>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:44">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -11848,12 +12030,12 @@
         <v>4.4447763299836898E-3</v>
       </c>
       <c r="AR67" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:44">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>114.195804184615</v>
@@ -11982,12 +12164,12 @@
         <v>41.103174961329699</v>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:44">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>230.76923076923001</v>
@@ -12116,12 +12298,12 @@
         <v>330</v>
       </c>
       <c r="AR69" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:44">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B70">
         <v>553.84615384615302</v>
@@ -12163,102 +12345,102 @@
         <v>159.78461538461499</v>
       </c>
       <c r="O70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="U70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AI70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AJ70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AK70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AL70" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AR70" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:44">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N71">
         <v>92.307692307692307</v>
@@ -12303,45 +12485,45 @@
         <v>46.999999999999801</v>
       </c>
       <c r="AB71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AI71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AJ71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AO71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AP71" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AR71" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:44">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -12380,81 +12562,81 @@
         <v>21172.7616645649</v>
       </c>
       <c r="N72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="U72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AI72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AJ72" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AR72" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:44">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B73">
         <v>355.27347009230698</v>
@@ -12493,81 +12675,81 @@
         <v>147.288776796973</v>
       </c>
       <c r="N73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="U73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AI73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AJ73" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AR73" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:44">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B74">
         <v>3415.3846153846098</v>
@@ -12696,12 +12878,12 @@
         <v>4218</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:44">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B75">
         <v>13.4279015538461</v>
@@ -12800,28 +12982,28 @@
         <v>37.999999999999901</v>
       </c>
       <c r="AH75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AI75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AJ75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AK75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AL75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AM75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AN75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AO75" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AP75">
         <v>0</v>
@@ -12830,12 +13012,12 @@
         <v>0</v>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:44">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B76">
         <v>20.910807369230699</v>
@@ -12964,12 +13146,12 @@
         <v>13.7025686865654</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:44">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B77">
         <v>10.2564102461538</v>
@@ -13098,12 +13280,12 @@
         <v>22</v>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:44">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -13232,30 +13414,30 @@
         <v>15.3126633637614</v>
       </c>
       <c r="AR78" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="H79" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J79" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K79" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L79" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M79" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N79">
         <v>32.307692307692299</v>
@@ -13348,33 +13530,33 @@
         <v>107.560158543401</v>
       </c>
       <c r="AR79" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:44">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J80" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K80" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L80" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M80">
         <v>4851</v>
@@ -13470,12 +13652,12 @@
         <v>6128</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:44">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -13511,96 +13693,96 @@
         <v>513.99180327868805</v>
       </c>
       <c r="M81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="U81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AI81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AJ81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AK81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AL81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AP81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AQ81" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AR81" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:44">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B82">
         <v>2815.3846153846098</v>
@@ -13636,90 +13818,90 @@
         <v>4880.3215636822197</v>
       </c>
       <c r="M82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="U82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AI82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AJ82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AK82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AL82" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AR82" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B83">
         <v>23.369036030769202</v>
@@ -13848,12 +14030,12 @@
         <v>138</v>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:44">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B84">
         <v>1.2156381692307601</v>
@@ -13982,12 +14164,12 @@
         <v>7.7250418604239304</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:44">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B85">
         <v>830.76923076923003</v>
@@ -14116,12 +14298,12 @@
         <v>905</v>
       </c>
       <c r="AR85" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:44">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B86">
         <v>1.6415938153846099</v>
@@ -14250,12 +14432,12 @@
         <v>14.775724725894101</v>
       </c>
       <c r="AR86" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:44">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -14384,12 +14566,12 @@
         <v>6.1262663054772499</v>
       </c>
       <c r="AR87" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:44">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B88">
         <v>31.770910569230701</v>
@@ -14488,28 +14670,28 @@
         <v>128.99999999999901</v>
       </c>
       <c r="AH88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AI88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AJ88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AK88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AL88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AM88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AN88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AO88" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AP88">
         <v>0</v>
@@ -14518,12 +14700,12 @@
         <v>0</v>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:44">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B89">
         <v>164.659599230769</v>
@@ -14652,12 +14834,12 @@
         <v>96.691795200000001</v>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:44">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B90">
         <v>34.765234753846102</v>
@@ -14786,12 +14968,12 @@
         <v>47.999999999999901</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:44">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B91">
         <v>2.5656515538461502</v>
@@ -14920,12 +15102,12 @@
         <v>12.595124648668</v>
       </c>
       <c r="AR91" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:44">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B92">
         <v>3.5772167076922998</v>
@@ -15054,12 +15236,12 @@
         <v>12.5953354455525</v>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:44">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B93">
         <v>10.024127815384601</v>
@@ -15188,12 +15370,12 @@
         <v>6</v>
       </c>
       <c r="AR93" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:44">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B94">
         <v>22.6059654461538</v>
@@ -15322,12 +15504,12 @@
         <v>24.1995156227193</v>
       </c>
       <c r="AR94" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:44">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="B95">
         <v>1225.7250945692299</v>
@@ -15351,108 +15533,108 @@
         <v>828.49936948297602</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="U95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AI95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AJ95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AK95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AL95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AP95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AQ95" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AR95" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:44">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B96">
         <v>18.934911230769199</v>
@@ -15581,12 +15763,12 @@
         <v>24</v>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:44">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B97">
         <v>1163.84411344615</v>
@@ -15715,12 +15897,12 @@
         <v>6365.0589127316298</v>
       </c>
       <c r="AR97" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:44">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -15849,12 +16031,12 @@
         <v>135</v>
       </c>
       <c r="AR98" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:44">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B99">
         <v>46.153846153846096</v>
@@ -15983,12 +16165,12 @@
         <v>138</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:44">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B100">
         <v>1190.8374624461501</v>
@@ -16117,12 +16299,12 @@
         <v>4921.11011399156</v>
       </c>
       <c r="AR100" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:44">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B101">
         <v>520.07648183076901</v>
@@ -16251,12 +16433,12 @@
         <v>1611.36834083228</v>
       </c>
       <c r="AR101" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:44">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B102">
         <v>492.12233547692301</v>
@@ -16385,12 +16567,12 @@
         <v>866.00000018285004</v>
       </c>
       <c r="AR102" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:44">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B103">
         <v>287.17948716923001</v>
@@ -16519,12 +16701,12 @@
         <v>303</v>
       </c>
       <c r="AR103" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:44">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B104">
         <v>230.76923076923001</v>
@@ -16653,12 +16835,12 @@
         <v>420</v>
       </c>
       <c r="AR104" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:44">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B105">
         <v>553.84615384615302</v>
@@ -16787,12 +16969,12 @@
         <v>530</v>
       </c>
       <c r="AR105" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:44">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>1384.61538461538</v>
@@ -16921,12 +17103,12 @@
         <v>2135</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:44">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B107">
         <v>199.84917041538401</v>
@@ -17055,12 +17237,12 @@
         <v>72</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:44">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B108">
         <v>3692.3076923076901</v>
@@ -17189,12 +17371,12 @@
         <v>6164</v>
       </c>
       <c r="AR108" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:44">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B109">
         <v>93.496841307692307</v>
@@ -17323,30 +17505,30 @@
         <v>117</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:44">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I110" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J110" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K110" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L110" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M110" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N110">
         <v>969.23076923076906</v>
@@ -17439,12 +17621,12 @@
         <v>350</v>
       </c>
       <c r="AR110" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:44">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B111">
         <v>282.14356338461499</v>
@@ -17573,12 +17755,12 @@
         <v>704.25550021805395</v>
       </c>
       <c r="AR111" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:44">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B112">
         <v>1.9376854153846099</v>
@@ -17707,12 +17889,12 @@
         <v>1.3918787088425999</v>
       </c>
       <c r="AR112" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:44">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="AD113">
         <v>0</v>
@@ -17757,12 +17939,12 @@
         <v>1.93347977798818</v>
       </c>
       <c r="AR113" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:44">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B114">
         <v>454.52182952307601</v>
@@ -17891,30 +18073,30 @@
         <v>426</v>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:44">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="H115" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J115" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K115" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L115" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M115" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N115">
         <v>60</v>
@@ -18007,12 +18189,12 @@
         <v>8</v>
       </c>
       <c r="AR115" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:44">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B116">
         <v>9.2307692307692299</v>
@@ -18141,30 +18323,30 @@
         <v>51.868682724829</v>
       </c>
       <c r="AR116" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:44">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="H117" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J117" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K117" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L117" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M117" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N117">
         <v>27</v>
@@ -18257,12 +18439,12 @@
         <v>77</v>
       </c>
       <c r="AR117" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:44">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B118">
         <v>27.208599276923</v>
@@ -18391,12 +18573,12 @@
         <v>266.631934695594</v>
       </c>
       <c r="AR118" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:44">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -18525,12 +18707,12 @@
         <v>0.403450708438578</v>
       </c>
       <c r="AR119" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:44">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B120">
         <v>14.7109843384615</v>
@@ -18659,12 +18841,12 @@
         <v>11.0833448856767</v>
       </c>
       <c r="AR120" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:44">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B121">
         <v>369.82248521538401</v>
@@ -18793,30 +18975,30 @@
         <v>31</v>
       </c>
       <c r="AR121" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:44">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="H122" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I122" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J122" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K122" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L122" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M122" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N122">
         <v>65</v>
@@ -18909,12 +19091,12 @@
         <v>69</v>
       </c>
       <c r="AR122" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:44">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B123">
         <v>46.153846153846096</v>
@@ -19043,12 +19225,12 @@
         <v>611</v>
       </c>
       <c r="AR123" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:44">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -19177,12 +19359,12 @@
         <v>184.240814195105</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:44">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B125">
         <v>1.4344008923076901</v>
@@ -19311,12 +19493,12 @@
         <v>18</v>
       </c>
       <c r="AR125" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:44">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B126">
         <v>11.076923076923</v>
@@ -19445,12 +19627,12 @@
         <v>9.4602289212114297</v>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:44">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B127">
         <v>342.48607047692298</v>
@@ -19579,12 +19761,12 @@
         <v>2676</v>
       </c>
       <c r="AR127" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:44">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B128">
         <v>0.99570355384615294</v>
@@ -19713,12 +19895,12 @@
         <v>41.4949142216959</v>
       </c>
       <c r="AR128" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:44">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B129">
         <v>16.689485953846098</v>
@@ -19847,12 +20029,12 @@
         <v>67.501622416099707</v>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:44">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B130">
         <v>50.556631430769201</v>
@@ -19981,12 +20163,12 @@
         <v>155.47434241977899</v>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:44">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -20085,28 +20267,28 @@
         <v>86.999999999999801</v>
       </c>
       <c r="AH131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AI131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AJ131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AK131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AL131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AM131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AN131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AO131" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AP131">
         <v>92.499999999999901</v>
@@ -20115,12 +20297,12 @@
         <v>92.499999999999901</v>
       </c>
       <c r="AR131" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:44">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B132">
         <v>16.9737241846153</v>
@@ -20249,12 +20431,12 @@
         <v>20.441570121620799</v>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:44">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B133">
         <v>61.538461523076897</v>
@@ -20383,12 +20565,12 @@
         <v>112</v>
       </c>
       <c r="AR133" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:44">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B134">
         <v>1153.8461538461499</v>
@@ -20517,12 +20699,12 @@
         <v>2803</v>
       </c>
       <c r="AR134" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:44">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="V135">
         <v>4.8</v>
@@ -20591,30 +20773,30 @@
         <v>7.5900286090223403</v>
       </c>
       <c r="AR135" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:44">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="H136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M136" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N136">
         <v>32.307692307692299</v>
@@ -20707,12 +20889,12 @@
         <v>51.671141649408099</v>
       </c>
       <c r="AR136" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:44">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -20841,33 +21023,33 @@
         <v>45.017482117470401</v>
       </c>
       <c r="AR137" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:44">
       <c r="A138" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="U138" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V138" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W138" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X138" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y138" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z138" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA138" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB138">
         <v>14.999999999999901</v>
@@ -20918,12 +21100,12 @@
         <v>14</v>
       </c>
       <c r="AR138" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:44">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -21052,12 +21234,12 @@
         <v>9.0748947835041296E-2</v>
       </c>
       <c r="AR139" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:44">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B140">
         <v>193.51013012307601</v>
@@ -21186,12 +21368,12 @@
         <v>813.06727951793505</v>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:44">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B141">
         <v>80.781365215384596</v>
@@ -21320,24 +21502,24 @@
         <v>24</v>
       </c>
       <c r="AR141" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:44">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="H142" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I142" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J142" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K142" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L142">
         <v>96.658259773013796</v>
@@ -21436,12 +21618,12 @@
         <v>40.298803441216897</v>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:44">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B143">
         <v>4.8227074615384602</v>
@@ -21570,12 +21752,12 @@
         <v>3.6305212407123402</v>
       </c>
       <c r="AR143" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:44">
       <c r="A144" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B144">
         <v>9.6921901846153808</v>
@@ -21704,12 +21886,12 @@
         <v>103.73735823395999</v>
       </c>
       <c r="AR144" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:44">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B145">
         <v>784.61538461538396</v>
@@ -21838,12 +22020,12 @@
         <v>2378</v>
       </c>
       <c r="AR145" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:44">
       <c r="A146" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B146">
         <v>65.240523184615299</v>
@@ -21972,12 +22154,12 @@
         <v>105.76271873052799</v>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:44">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B147">
         <v>33.915205200000003</v>
@@ -22106,12 +22288,12 @@
         <v>29.846510801651601</v>
       </c>
       <c r="AR147" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:44">
       <c r="A148" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B148">
         <v>323.07692307692298</v>
@@ -22240,12 +22422,12 @@
         <v>547</v>
       </c>
       <c r="AR148" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:44">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B149">
         <v>13.043478276923</v>
@@ -22374,12 +22556,12 @@
         <v>17</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:44">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B150">
         <v>29.538461538461501</v>
@@ -22508,12 +22690,12 @@
         <v>28</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:44">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B151">
         <v>365.72653680000002</v>
@@ -22642,12 +22824,12 @@
         <v>524.99999999999898</v>
       </c>
       <c r="AR151" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:44">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -22776,12 +22958,12 @@
         <v>0.49096787276842402</v>
       </c>
       <c r="AR152" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:44">
       <c r="A153" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -22910,30 +23092,30 @@
         <v>0</v>
       </c>
       <c r="AR153" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:44">
       <c r="A154" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="H154" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J154" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K154" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L154" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M154" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N154">
         <v>9.2307692307692299</v>
@@ -23026,20 +23208,20 @@
         <v>26.073136762874501</v>
       </c>
       <c r="AR154" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:44">
       <c r="A155" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="AR155" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:44">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B156">
         <v>276.923076923076</v>
@@ -23168,12 +23350,12 @@
         <v>446</v>
       </c>
       <c r="AR156" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:44">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B157">
         <v>98.076923076922995</v>
@@ -23302,12 +23484,12 @@
         <v>265</v>
       </c>
       <c r="AR157" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:44">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B158">
         <v>318.264014446153</v>
@@ -23436,45 +23618,45 @@
         <v>259</v>
       </c>
       <c r="AR158" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:44">
       <c r="A159" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="H159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R159" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S159">
         <v>0</v>
@@ -23552,12 +23734,12 @@
         <v>0</v>
       </c>
       <c r="AR159" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:44">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B160">
         <v>102.85714287692301</v>
@@ -23686,12 +23868,12 @@
         <v>254</v>
       </c>
       <c r="AR160" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:44">
       <c r="A161" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B161">
         <v>49.9999999846153</v>
@@ -23820,12 +24002,12 @@
         <v>72.498866000000007</v>
       </c>
       <c r="AR161" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:44">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B162">
         <v>16.7678193230769</v>
@@ -23954,12 +24136,12 @@
         <v>25</v>
       </c>
       <c r="AR162" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:44">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B163">
         <v>348.05709752307598</v>
@@ -24088,12 +24270,12 @@
         <v>336</v>
       </c>
       <c r="AR163" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:44">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B164">
         <v>485.44632876922998</v>
@@ -24222,12 +24404,12 @@
         <v>804.00000011979796</v>
       </c>
       <c r="AR164" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:44">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B165">
         <v>46.153846153846096</v>
@@ -24356,12 +24538,12 @@
         <v>574</v>
       </c>
       <c r="AR165" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:44">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B166">
         <v>230.76923076923001</v>
@@ -24490,12 +24672,12 @@
         <v>782</v>
       </c>
       <c r="AR166" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:44">
       <c r="A167" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B167">
         <v>375.84950261538398</v>
@@ -24624,12 +24806,12 @@
         <v>404.28751577049098</v>
       </c>
       <c r="AR167" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="1:44">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B168">
         <v>53.866338415384597</v>
@@ -24758,12 +24940,12 @@
         <v>3075</v>
       </c>
       <c r="AR168" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="1:44">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B169">
         <v>34.781019092307602</v>
@@ -24862,28 +25044,28 @@
         <v>198.99999999999901</v>
       </c>
       <c r="AH169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AI169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AJ169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AK169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AL169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AM169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AN169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AO169" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AP169">
         <v>0</v>
@@ -24892,12 +25074,12 @@
         <v>0</v>
       </c>
       <c r="AR169" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:44">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -25026,30 +25208,30 @@
         <v>178.64940832185101</v>
       </c>
       <c r="AR170" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="1:44">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H171" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I171" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J171" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K171" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L171" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M171" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N171">
         <v>13938.461538461501</v>
@@ -25142,12 +25324,12 @@
         <v>9913</v>
       </c>
       <c r="AR171" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172" spans="1:44">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B172">
         <v>2.2292970461538402</v>
@@ -25276,12 +25458,12 @@
         <v>30</v>
       </c>
       <c r="AR172" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:44">
       <c r="A173" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -25410,12 +25592,12 @@
         <v>0</v>
       </c>
       <c r="AR173" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:44">
       <c r="A174" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -25544,12 +25726,12 @@
         <v>4.6615788980548301</v>
       </c>
       <c r="AR174" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:44">
       <c r="A175" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -25678,12 +25860,12 @@
         <v>26.889070035803801</v>
       </c>
       <c r="AR175" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:44">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="B176">
         <v>7.0819384615384597E-3</v>
@@ -25812,12 +25994,12 @@
         <v>0</v>
       </c>
       <c r="AR176" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:44">
       <c r="A177" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -25946,12 +26128,12 @@
         <v>5.3631401741692002E-2</v>
       </c>
       <c r="AR177" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:44">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -26080,12 +26262,12 @@
         <v>12.2340600792744</v>
       </c>
       <c r="AR178" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:44">
       <c r="A179" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -26214,12 +26396,12 @@
         <v>11.7879312231403</v>
       </c>
       <c r="AR179" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:44">
       <c r="A180" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B180">
         <v>780.44542726153804</v>
@@ -26348,12 +26530,12 @@
         <v>1725</v>
       </c>
       <c r="AR180" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" spans="1:44">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B181">
         <v>116.686390523076</v>
@@ -26482,33 +26664,33 @@
         <v>143</v>
       </c>
       <c r="AR181" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:44">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="U182" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V182" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W182" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X182" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y182" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z182" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA182" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB182">
         <v>51.857923497267898</v>
@@ -26559,12 +26741,12 @@
         <v>132.299108023884</v>
       </c>
       <c r="AR182" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:44">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B183">
         <v>10.411111661538399</v>
@@ -26693,12 +26875,12 @@
         <v>32.239112123391799</v>
       </c>
       <c r="AR183" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:44">
       <c r="A184" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B184">
         <v>11.9225874461538</v>
@@ -26827,12 +27009,12 @@
         <v>8.1200410977496702</v>
       </c>
       <c r="AR184" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:44">
       <c r="A185" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B185">
         <v>796.84418146153803</v>
@@ -26961,39 +27143,39 @@
         <v>4944.8032783732597</v>
       </c>
       <c r="AR185" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:44">
       <c r="A186" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N186" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -27083,30 +27265,30 @@
         <v>22</v>
       </c>
       <c r="AR186" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:44">
       <c r="A187" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="H187" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I187" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J187" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K187" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L187" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M187" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N187">
         <v>12</v>
@@ -27199,12 +27381,12 @@
         <v>12</v>
       </c>
       <c r="AR187" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:44">
       <c r="A188" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -27333,12 +27515,12 @@
         <v>3.1891604351007299</v>
       </c>
       <c r="AR188" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="189" spans="1:44">
       <c r="A189" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B189">
         <v>45.057355430769199</v>
@@ -27467,12 +27649,12 @@
         <v>43.298858766224903</v>
       </c>
       <c r="AR189" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:44">
       <c r="A190" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B190">
         <v>493.43232438461501</v>
@@ -27601,12 +27783,12 @@
         <v>1063</v>
       </c>
       <c r="AR190" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:44">
       <c r="A191" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B191">
         <v>600</v>
@@ -27735,90 +27917,90 @@
         <v>4450</v>
       </c>
       <c r="AR191" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:44">
       <c r="A192" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="P192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="R192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="T192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="U192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Z192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AA192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AB192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AC192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AD192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AE192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AF192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AG192" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="AH192">
         <v>39</v>
@@ -27851,12 +28033,12 @@
         <v>88.662144099622907</v>
       </c>
       <c r="AR192" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:44">
       <c r="A193" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B193">
         <v>2169.23076923076</v>
@@ -27985,12 +28167,12 @@
         <v>3344</v>
       </c>
       <c r="AR193" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:44">
       <c r="A194" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B194">
         <v>120.52857096923</v>
@@ -28119,12 +28301,12 @@
         <v>248</v>
       </c>
       <c r="AR194" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:44">
       <c r="A195" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B195">
         <v>65.274725261538407</v>
@@ -28253,12 +28435,12 @@
         <v>150</v>
       </c>
       <c r="AR195" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="196" spans="1:44">
       <c r="A196" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B196">
         <v>22.6811637692307</v>
@@ -28387,12 +28569,12 @@
         <v>25</v>
       </c>
       <c r="AR196" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="1:44">
       <c r="A197" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B197">
         <v>415.38461538461502</v>
@@ -28521,12 +28703,12 @@
         <v>412</v>
       </c>
       <c r="AR197" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" spans="1:44">
       <c r="A198" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B198">
         <v>738.461538461538</v>
@@ -28655,12 +28837,12 @@
         <v>785</v>
       </c>
       <c r="AR198" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:44">
       <c r="A199" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B199">
         <v>200.364298707692</v>
@@ -28789,12 +28971,12 @@
         <v>94.999999999999901</v>
       </c>
       <c r="AR199" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:44">
       <c r="A200" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B200">
         <v>520.55784927692298</v>
@@ -28923,30 +29105,30 @@
         <v>2022.0459459394699</v>
       </c>
       <c r="AR200" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:44">
       <c r="A201" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="H201" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I201" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J201" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K201" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L201" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M201" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -29039,12 +29221,12 @@
         <v>27</v>
       </c>
       <c r="AR201" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:44">
       <c r="A202" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B202">
         <v>63.260021999999999</v>
@@ -29173,12 +29355,12 @@
         <v>164.22361166146001</v>
       </c>
       <c r="AR202" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:44">
       <c r="A203" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B203">
         <v>1058.99734070769</v>
@@ -29307,12 +29489,12 @@
         <v>1407.6788250693501</v>
       </c>
       <c r="AR203" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" spans="1:44">
       <c r="A204" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B204">
         <v>34.233316338461499</v>
@@ -29441,24 +29623,24 @@
         <v>50.408107975251902</v>
       </c>
       <c r="AR204" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="205" spans="1:44">
       <c r="A205" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="U205" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="V205" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="W205" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X205" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y205">
         <v>2</v>
@@ -29518,12 +29700,12 @@
         <v>3.1126008015902902</v>
       </c>
       <c r="AR205" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="1:44">
       <c r="A206" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B206">
         <v>15.769230784615299</v>
@@ -29652,12 +29834,12 @@
         <v>71.531478272211601</v>
       </c>
       <c r="AR206" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:44">
       <c r="A207" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B207">
         <v>3.2283419076922999</v>
@@ -29786,12 +29968,12 @@
         <v>3.13063048438962</v>
       </c>
       <c r="AR207" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:44">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B208">
         <v>201.39860141538401</v>
@@ -29920,12 +30102,12 @@
         <v>126</v>
       </c>
       <c r="AR208" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:44">
       <c r="A209" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B209">
         <v>78.0487805076923</v>
@@ -30054,12 +30236,12 @@
         <v>95.999999999999901</v>
       </c>
       <c r="AR209" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:44">
       <c r="A210" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B210">
         <v>138.461538461538</v>
@@ -30188,30 +30370,30 @@
         <v>3505</v>
       </c>
       <c r="AR210" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:44">
       <c r="A211" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="H211" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I211" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J211" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K211" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L211" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M211" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N211">
         <v>101.53846153846099</v>
@@ -30304,12 +30486,12 @@
         <v>261</v>
       </c>
       <c r="AR211" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:44">
       <c r="A212" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -30438,20 +30620,20 @@
         <v>0</v>
       </c>
       <c r="AR212" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:44">
       <c r="A213" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="AR213" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:44">
       <c r="A214" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B214">
         <v>6.3461538461538396</v>
@@ -30580,20 +30762,20 @@
         <v>13.8083228247162</v>
       </c>
       <c r="AR214" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:44">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="AR215" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="216" spans="1:44">
       <c r="A216" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="B216">
         <v>172.83142389230699</v>
@@ -30722,12 +30904,12 @@
         <v>82.537408627022998</v>
       </c>
       <c r="AR216" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:44">
       <c r="A217" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B217">
         <v>10.513404599999999</v>
@@ -30856,30 +31038,30 @@
         <v>108.811572869964</v>
       </c>
       <c r="AR217" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:44">
       <c r="A218" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="H218" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I218" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J218" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K218" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L218" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M218" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N218">
         <v>1476.9230769230701</v>
@@ -30972,12 +31154,12 @@
         <v>133.91981005406399</v>
       </c>
       <c r="AR218" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:44">
       <c r="A219" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B219">
         <v>266.65679049230698</v>
@@ -31106,12 +31288,12 @@
         <v>4746.99999999999</v>
       </c>
       <c r="AR219" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:44">
       <c r="A220" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="B220">
         <v>4984.6153846153802</v>
@@ -31240,12 +31422,12 @@
         <v>4904</v>
       </c>
       <c r="AR220" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:44">
       <c r="A221" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B221">
         <v>39268.726355611601</v>
@@ -31374,12 +31556,12 @@
         <v>273.56354850000002</v>
       </c>
       <c r="AR221" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:44">
       <c r="A222" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -31508,30 +31690,30 @@
         <v>47</v>
       </c>
       <c r="AR222" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:44">
       <c r="A223" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="H223" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I223" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J223" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K223" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="L223" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M223" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N223">
         <v>198.461538461538</v>
@@ -31624,12 +31806,12 @@
         <v>123</v>
       </c>
       <c r="AR223" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:44">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -31758,12 +31940,12 @@
         <v>10.603743423777701</v>
       </c>
       <c r="AR224" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:44">
       <c r="A225" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B225">
         <v>427.94692846153799</v>
@@ -31892,12 +32074,12 @@
         <v>186</v>
       </c>
       <c r="AR225" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:44">
       <c r="A226" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -32026,12 +32208,12 @@
         <v>1089</v>
       </c>
       <c r="AR226" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:44">
       <c r="A227" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B227">
         <v>359.37770095384599</v>
@@ -32160,12 +32342,12 @@
         <v>361.31778058007501</v>
       </c>
       <c r="AR227" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:44">
       <c r="A228" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B228">
         <v>1.7566718307692299</v>
@@ -32294,12 +32476,12 @@
         <v>4.0298364141191003</v>
       </c>
       <c r="AR228" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:44">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B229">
         <v>112.60426320000001</v>
@@ -32428,12 +32610,12 @@
         <v>72.979247287515705</v>
       </c>
       <c r="AR229" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:44">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B230">
         <v>55.868905661538399</v>
@@ -32562,12 +32744,12 @@
         <v>15</v>
       </c>
       <c r="AR230" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:44">
       <c r="A231" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B231">
         <v>93.167701846153804</v>
@@ -32696,7 +32878,7 @@
         <v>50.375793643688702</v>
       </c>
       <c r="AR231" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -32711,148 +32893,561 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFBADA0-B9B3-AA4D-B65B-ADBB5DB4129C}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" t="s">
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2">
+        <v>1971</v>
+      </c>
+      <c r="B2">
+        <v>112.124605142175</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>112.124605142175</v>
+      </c>
+      <c r="D2">
+        <f>(C2*1250)/1000</f>
+        <v>140.15575642771876</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>13</v>
+      <c r="A3">
+        <v>1972.0234425015799</v>
+      </c>
+      <c r="B3">
+        <v>117.847968869791</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C27" si="0">B3</f>
+        <v>117.847968869791</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D27" si="1">(C3*1250)/1000</f>
+        <v>147.30996108723875</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>14</v>
+      <c r="A4">
+        <v>1972.9346650262</v>
+      </c>
+      <c r="B4">
+        <v>121.46024285567501</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>121.46024285567501</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>151.82530356959376</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="A5">
+        <v>1974.0670658935001</v>
+      </c>
+      <c r="B5">
+        <v>118.13250361596199</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>118.13250361596199</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>147.66562951995249</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="A6">
+        <v>1975.0102037321401</v>
+      </c>
+      <c r="B6">
+        <v>118.727918918135</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>118.727918918135</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>148.40989864766874</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>17</v>
+      <c r="A7">
+        <v>1975.9219479037899</v>
+      </c>
+      <c r="B7">
+        <v>119.02193815584501</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>119.02193815584501</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>148.77742269480626</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>18</v>
+      <c r="A8">
+        <v>1977.02124789562</v>
+      </c>
+      <c r="B8">
+        <v>126.252545663874</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>126.252545663874</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>157.81568207984247</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>19</v>
+      <c r="A9">
+        <v>1977.9323755753201</v>
+      </c>
+      <c r="B9">
+        <v>130.46813869488099</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>130.46813869488099</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>163.08517336860123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>20</v>
+      <c r="A10">
+        <v>1979.0318178345301</v>
+      </c>
+      <c r="B10">
+        <v>136.793767635226</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>136.793767635226</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>170.99220954403251</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="A11">
+        <v>1980</v>
+      </c>
+      <c r="B11">
+        <v>137.08725995674001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>137.08725995674001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>171.35907494592502</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>22</v>
+      <c r="A12">
+        <v>1980.9500088258401</v>
+      </c>
+      <c r="B12">
+        <v>134.96773955586201</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>134.96773955586201</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>168.7096744448275</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>23</v>
+      <c r="A13">
+        <v>1981.98732766547</v>
+      </c>
+      <c r="B13">
+        <v>136.467343051424</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>136.467343051424</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>170.58417881427999</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>24</v>
+      <c r="A14">
+        <v>1982.9616694812701</v>
+      </c>
+      <c r="B14">
+        <v>138.570792508305</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>138.570792508305</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>173.21349063538125</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>25</v>
+      <c r="A15">
+        <v>1983.9348257356401</v>
+      </c>
+      <c r="B15">
+        <v>148.21573002921701</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>148.21573002921701</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>185.26966253652128</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>36</v>
+      <c r="A16">
+        <v>1984.9402292612299</v>
+      </c>
+      <c r="B16">
+        <v>152.73219220849001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>152.73219220849001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>190.91524026061251</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1985.9450162948799</v>
+      </c>
+      <c r="B17">
+        <v>161.17022818105801</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>161.17022818105801</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>201.4627852263225</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1986.9187416187301</v>
+      </c>
+      <c r="B18">
+        <v>167.19525143123599</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>167.19525143123599</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>208.99406428904499</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1987.9551120092101</v>
+      </c>
+      <c r="B19">
+        <v>174.72804537802199</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>174.72804537802199</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>218.41005672252749</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1988.9601835776</v>
+      </c>
+      <c r="B20">
+        <v>181.35612421522401</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>181.35612421522401</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>226.69515526903001</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1989.90332141624</v>
+      </c>
+      <c r="B21">
+        <v>181.95153951739701</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>181.95153951739701</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>227.43942439674626</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1990.9415412825599</v>
+      </c>
+      <c r="B22">
+        <v>177.71961208429599</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>177.71961208429599</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>222.14951510537</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1991.94794067977</v>
+      </c>
+      <c r="B23">
+        <v>175.90122428978199</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>175.90122428978199</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>219.8765303622275</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1992.98506982956</v>
+      </c>
+      <c r="B24">
+        <v>178.60746587558901</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>178.60746587558901</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>223.25933234448627</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1993.9269746843099</v>
+      </c>
+      <c r="B25">
+        <v>187.04602876435499</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>187.04602876435499</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>233.80753595544374</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1994.9323782099</v>
+      </c>
+      <c r="B26">
+        <v>191.56249094362701</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>191.56249094362701</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>239.45311367953377</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1995.9372600884601</v>
+      </c>
+      <c r="B27">
+        <v>199.39720787107399</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>199.39720787107399</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>249.24650983884248</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="img915" xr:uid="{C0311FA0-52F3-5B41-8745-1E4E6EC74967}"/>
+    <hyperlink ref="E3" r:id="rId2" location="img915" xr:uid="{A6574CD3-01D6-D441-990D-0750A15B5ADB}"/>
+    <hyperlink ref="E4" r:id="rId3" location="img915" xr:uid="{9053A319-76E2-8748-AF4D-5455DEFF3783}"/>
+    <hyperlink ref="E6" r:id="rId4" location="img915" xr:uid="{FB8D8477-6ABD-CD4A-910B-1B153E2B34BF}"/>
+    <hyperlink ref="E8" r:id="rId5" location="img915" xr:uid="{8D0B7B1F-72D5-2346-98C1-2AB2E4D8CB0F}"/>
+    <hyperlink ref="E10" r:id="rId6" location="img915" xr:uid="{89FA340B-C84C-5045-8D93-AB1821CE7725}"/>
+    <hyperlink ref="E12" r:id="rId7" location="img915" xr:uid="{0CE49BD0-F165-324C-B255-F53F9F0128B4}"/>
+    <hyperlink ref="E14" r:id="rId8" location="img915" xr:uid="{C59CF49F-A354-C44E-A116-F65C06B3E80C}"/>
+    <hyperlink ref="E16" r:id="rId9" location="img915" xr:uid="{5639756D-8CB9-A048-9A96-F994365CCBD5}"/>
+    <hyperlink ref="E18" r:id="rId10" location="img915" xr:uid="{31F70B0C-08FF-8445-8F36-445D84F81CD5}"/>
+    <hyperlink ref="E20" r:id="rId11" location="img915" xr:uid="{5ED89CA1-2EEB-E44A-826A-BDEFA96A1D7F}"/>
+    <hyperlink ref="E22" r:id="rId12" location="img915" xr:uid="{DA475A3D-2F68-254A-8355-94748704CA9B}"/>
+    <hyperlink ref="E24" r:id="rId13" location="img915" xr:uid="{ABBC0F49-F48F-934B-BED5-71C79B997531}"/>
+    <hyperlink ref="E26" r:id="rId14" location="img915" xr:uid="{9DE6F75E-0EF6-7B4A-A9D2-481677251784}"/>
+    <hyperlink ref="E5" r:id="rId15" location="img915" xr:uid="{9F1545F6-520F-AF45-B44A-79701ABC8FFC}"/>
+    <hyperlink ref="E7" r:id="rId16" location="img915" xr:uid="{58D8C197-314C-8549-A716-E6B9F31632BA}"/>
+    <hyperlink ref="E9" r:id="rId17" location="img915" xr:uid="{B69E563D-AAF1-A24E-8E32-E6E06D9C3182}"/>
+    <hyperlink ref="E11" r:id="rId18" location="img915" xr:uid="{EFB3755F-7515-8D4A-8F78-4ED2EE6F78D7}"/>
+    <hyperlink ref="E13" r:id="rId19" location="img915" xr:uid="{35A569FD-DEE2-0547-A14E-01E4F15C3B26}"/>
+    <hyperlink ref="E15" r:id="rId20" location="img915" xr:uid="{4DBFAEF4-9E85-8942-B890-DDACCDAF736F}"/>
+    <hyperlink ref="E17" r:id="rId21" location="img915" xr:uid="{F592957E-7B07-9D4D-8103-AE70626F93A5}"/>
+    <hyperlink ref="E19" r:id="rId22" location="img915" xr:uid="{5C88BD10-86FA-AA44-B0D3-8339F067E445}"/>
+    <hyperlink ref="E21" r:id="rId23" location="img915" xr:uid="{D5042483-7C8D-8C43-B314-9B1DBC5F5470}"/>
+    <hyperlink ref="E23" r:id="rId24" location="img915" xr:uid="{4DFE2FE1-ED03-2E48-962D-0725FF1B2288}"/>
+    <hyperlink ref="E25" r:id="rId25" location="img915" xr:uid="{0D570850-E852-BB40-BD36-8D49CA58B05A}"/>
+    <hyperlink ref="E27" r:id="rId26" location="img915" xr:uid="{6B09454F-33A2-9A41-843E-8535DB44051F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4_aviation/historical_fuel_use/data/data.xlsx
+++ b/4_aviation/historical_fuel_use/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/historical_fuel_use/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFAC49C-961D-3641-9326-76A63DC184C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8FF8A-F224-1A4B-B1B8-F262EB3E9E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{BD6395E2-BE37-D04E-86F4-608337206BF2}"/>
+    <workbookView xWindow="-76800" yWindow="-15380" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{BD6395E2-BE37-D04E-86F4-608337206BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Aviation CO2" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    unit: Mmt (million metric tons)</t>
+    1000 metric tons (“Mmt”)!</t>
       </text>
     </comment>
   </commentList>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>ie</t>
-  </si>
-  <si>
-    <t>Country</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -878,6 +875,9 @@
   <si>
     <t>Total Production [bl/day]</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
 </sst>
 </file>
 
@@ -1282,7 +1282,7 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-01-10T09:06:01.55" personId="{B52257B7-FE49-0F4D-B712-D047CF437D08}" id="{40669D38-C0D7-4549-B72F-8DF8E4295A5C}">
-    <text>unit: Mmt (million metric tons)</text>
+    <text>1000 metric tons (“Mmt”)!</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
         <v>244</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>245</v>
       </c>
-      <c r="D1" t="s">
-        <v>246</v>
-      </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2975,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6225810B-7543-C14E-8E71-D7A034B6EE53}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2993,10 +2993,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789DF240-A000-164A-A33D-3CC66962C1E5}">
   <dimension ref="A1:AR231"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3201,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B1">
         <v>1980</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>66.527919738461506</v>
@@ -3464,12 +3464,12 @@
         <v>65.765051362507506</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3598,12 +3598,12 @@
         <v>16</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>369.61955012307601</v>
@@ -3732,12 +3732,12 @@
         <v>287</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>32.307692307692299</v>
@@ -3866,12 +3866,12 @@
         <v>9.2451699999999999</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>127.989657415384</v>
@@ -4000,12 +4000,12 @@
         <v>134</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4134,12 +4134,12 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>63.554884707692302</v>
@@ -4268,12 +4268,12 @@
         <v>68.118234064360195</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>719.87222423076901</v>
@@ -4402,12 +4402,12 @@
         <v>587</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -4518,12 +4518,12 @@
         <v>37</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4634,12 +4634,12 @@
         <v>80.309264307078706</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1753.8461538461499</v>
@@ -4768,12 +4768,12 @@
         <v>2826</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>138.461538461538</v>
@@ -4902,12 +4902,12 @@
         <v>404</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -5018,12 +5018,12 @@
         <v>468</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>380.285862507692</v>
@@ -5152,12 +5152,12 @@
         <v>308</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>227.54919498461501</v>
@@ -5286,12 +5286,12 @@
         <v>345</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>84.670329692307604</v>
@@ -5420,12 +5420,12 @@
         <v>114.937106954523</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -5536,12 +5536,12 @@
         <v>121</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>369.230769230769</v>
@@ -5670,12 +5670,12 @@
         <v>1464</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>11.834635615384601</v>
@@ -5804,12 +5804,12 @@
         <v>10.9489159243542</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5938,12 +5938,12 @@
         <v>16</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>26.611004538461501</v>
@@ -6072,12 +6072,12 @@
         <v>14.223206210275199</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6206,12 +6206,12 @@
         <v>3.7656784729692299</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>87.495442938461494</v>
@@ -6340,12 +6340,12 @@
         <v>77.999999999999901</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -6456,12 +6456,12 @@
         <v>8.6895598341266993</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6590,12 +6590,12 @@
         <v>12.089667001234</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1788</v>
@@ -6724,12 +6724,12 @@
         <v>3464.00189155107</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6858,12 +6858,12 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>11.9847477230769</v>
@@ -6992,12 +6992,12 @@
         <v>114</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7126,12 +7126,12 @@
         <v>249.143705415135</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31">
         <v>4.0346857384615298</v>
@@ -7260,12 +7260,12 @@
         <v>30.226493100428399</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>54.919502907692298</v>
@@ -7394,12 +7394,12 @@
         <v>163</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>1.3865893846153801</v>
@@ -7528,12 +7528,12 @@
         <v>8.0597141408608994</v>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7662,12 +7662,12 @@
         <v>60.369367499331801</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7796,12 +7796,12 @@
         <v>238.78959394017201</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>66.3970967538461</v>
@@ -7930,12 +7930,12 @@
         <v>7</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>3784.6153846153802</v>
@@ -8064,12 +8064,12 @@
         <v>3741</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8198,12 +8198,12 @@
         <v>31.637420728507699</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39">
         <v>16.289592738461501</v>
@@ -8332,12 +8332,12 @@
         <v>16.119388456176999</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>19.433198399999998</v>
@@ -8466,12 +8466,12 @@
         <v>32.1</v>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>138.461538461538</v>
@@ -8600,12 +8600,12 @@
         <v>813</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>3035.5565884153798</v>
@@ -8734,12 +8734,12 @@
         <v>36822.194199243298</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>433.28100470769198</v>
@@ -8868,12 +8868,12 @@
         <v>986</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9002,12 +9002,12 @@
         <v>6.2279641130002803</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>39.090769569230702</v>
@@ -9136,12 +9136,12 @@
         <v>41</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:44">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>102.458049507692</v>
@@ -9270,12 +9270,12 @@
         <v>121.90736447616599</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47">
         <v>6.1538461384615299</v>
@@ -9404,12 +9404,12 @@
         <v>9.3743100826358994</v>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B48">
         <v>16.410256430769198</v>
@@ -9538,12 +9538,12 @@
         <v>113</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B49">
         <v>77.948717953846099</v>
@@ -9672,12 +9672,12 @@
         <v>187.39670607897801</v>
       </c>
       <c r="AR49" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
@@ -9788,12 +9788,12 @@
         <v>193.13484715597801</v>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>181.068280015384</v>
@@ -9922,12 +9922,12 @@
         <v>22</v>
       </c>
       <c r="AR51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:44">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>131.86813186153799</v>
@@ -10056,12 +10056,12 @@
         <v>293.56487622237597</v>
       </c>
       <c r="AR52" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:44">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -10190,12 +10190,12 @@
         <v>166</v>
       </c>
       <c r="AR53" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:44">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>784.61538461538396</v>
@@ -10324,12 +10324,12 @@
         <v>462</v>
       </c>
       <c r="AR54" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:44">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>123.076923092307</v>
@@ -10458,12 +10458,12 @@
         <v>80.601664992705395</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:44">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10592,12 +10592,12 @@
         <v>0.55280329842098397</v>
       </c>
       <c r="AR56" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:44">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B57">
         <v>26.121112938461501</v>
@@ -10726,12 +10726,12 @@
         <v>228</v>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:44">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>143.433497953846</v>
@@ -10860,12 +10860,12 @@
         <v>173</v>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:44">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>336.44859812307601</v>
@@ -10994,12 +10994,12 @@
         <v>1068.4511639218099</v>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:44">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60">
         <v>21.683014984615301</v>
@@ -11128,12 +11128,12 @@
         <v>162.22687954156299</v>
       </c>
       <c r="AR60" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:44">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -11262,12 +11262,12 @@
         <v>30</v>
       </c>
       <c r="AR61" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:44">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -11378,12 +11378,12 @@
         <v>12.0897401071825</v>
       </c>
       <c r="AR62" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:44">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
@@ -11494,12 +11494,12 @@
         <v>52</v>
       </c>
       <c r="AR63" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:44">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>0.88188886153846102</v>
@@ -11628,12 +11628,12 @@
         <v>1.00631731974358</v>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:44">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>74.060822907692298</v>
@@ -11762,12 +11762,12 @@
         <v>744.554722718888</v>
       </c>
       <c r="AR65" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:44">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -11896,12 +11896,12 @@
         <v>0</v>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:44">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -12030,12 +12030,12 @@
         <v>4.4447763299836898E-3</v>
       </c>
       <c r="AR67" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:44">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68">
         <v>114.195804184615</v>
@@ -12164,12 +12164,12 @@
         <v>41.103174961329699</v>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:44">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69">
         <v>230.76923076923001</v>
@@ -12298,12 +12298,12 @@
         <v>330</v>
       </c>
       <c r="AR69" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:44">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B70">
         <v>553.84615384615302</v>
@@ -12417,12 +12417,12 @@
         <v>9</v>
       </c>
       <c r="AR70" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:44">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H71" t="s">
         <v>9</v>
@@ -12518,12 +12518,12 @@
         <v>9</v>
       </c>
       <c r="AR71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:44">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -12631,12 +12631,12 @@
         <v>9</v>
       </c>
       <c r="AR72" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:44">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>355.27347009230698</v>
@@ -12744,12 +12744,12 @@
         <v>9</v>
       </c>
       <c r="AR73" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:44">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74">
         <v>3415.3846153846098</v>
@@ -12878,12 +12878,12 @@
         <v>4218</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:44">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B75">
         <v>13.4279015538461</v>
@@ -13012,12 +13012,12 @@
         <v>0</v>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:44">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B76">
         <v>20.910807369230699</v>
@@ -13146,12 +13146,12 @@
         <v>13.7025686865654</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:44">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77">
         <v>10.2564102461538</v>
@@ -13280,12 +13280,12 @@
         <v>22</v>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:44">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -13414,12 +13414,12 @@
         <v>15.3126633637614</v>
       </c>
       <c r="AR78" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
@@ -13530,12 +13530,12 @@
         <v>107.560158543401</v>
       </c>
       <c r="AR79" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:44">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -13652,12 +13652,12 @@
         <v>6128</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:44">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -13777,12 +13777,12 @@
         <v>9</v>
       </c>
       <c r="AR81" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:44">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82">
         <v>2815.3846153846098</v>
@@ -13896,12 +13896,12 @@
         <v>9</v>
       </c>
       <c r="AR82" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83">
         <v>23.369036030769202</v>
@@ -14030,12 +14030,12 @@
         <v>138</v>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:44">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84">
         <v>1.2156381692307601</v>
@@ -14164,12 +14164,12 @@
         <v>7.7250418604239304</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:44">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85">
         <v>830.76923076923003</v>
@@ -14298,12 +14298,12 @@
         <v>905</v>
       </c>
       <c r="AR85" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:44">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86">
         <v>1.6415938153846099</v>
@@ -14432,12 +14432,12 @@
         <v>14.775724725894101</v>
       </c>
       <c r="AR86" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:44">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -14566,12 +14566,12 @@
         <v>6.1262663054772499</v>
       </c>
       <c r="AR87" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:44">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>31.770910569230701</v>
@@ -14700,12 +14700,12 @@
         <v>0</v>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:44">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89">
         <v>164.659599230769</v>
@@ -14834,12 +14834,12 @@
         <v>96.691795200000001</v>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:44">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90">
         <v>34.765234753846102</v>
@@ -14968,12 +14968,12 @@
         <v>47.999999999999901</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:44">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91">
         <v>2.5656515538461502</v>
@@ -15102,12 +15102,12 @@
         <v>12.595124648668</v>
       </c>
       <c r="AR91" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:44">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92">
         <v>3.5772167076922998</v>
@@ -15236,12 +15236,12 @@
         <v>12.5953354455525</v>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:44">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93">
         <v>10.024127815384601</v>
@@ -15370,12 +15370,12 @@
         <v>6</v>
       </c>
       <c r="AR93" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:44">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94">
         <v>22.6059654461538</v>
@@ -15504,12 +15504,12 @@
         <v>24.1995156227193</v>
       </c>
       <c r="AR94" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:44">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95">
         <v>1225.7250945692299</v>
@@ -15629,12 +15629,12 @@
         <v>9</v>
       </c>
       <c r="AR95" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:44">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96">
         <v>18.934911230769199</v>
@@ -15763,12 +15763,12 @@
         <v>24</v>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:44">
       <c r="A97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97">
         <v>1163.84411344615</v>
@@ -15897,12 +15897,12 @@
         <v>6365.0589127316298</v>
       </c>
       <c r="AR97" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:44">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -16031,12 +16031,12 @@
         <v>135</v>
       </c>
       <c r="AR98" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:44">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99">
         <v>46.153846153846096</v>
@@ -16165,12 +16165,12 @@
         <v>138</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:44">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100">
         <v>1190.8374624461501</v>
@@ -16299,12 +16299,12 @@
         <v>4921.11011399156</v>
       </c>
       <c r="AR100" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:44">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B101">
         <v>520.07648183076901</v>
@@ -16433,12 +16433,12 @@
         <v>1611.36834083228</v>
       </c>
       <c r="AR101" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:44">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B102">
         <v>492.12233547692301</v>
@@ -16567,12 +16567,12 @@
         <v>866.00000018285004</v>
       </c>
       <c r="AR102" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:44">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103">
         <v>287.17948716923001</v>
@@ -16701,12 +16701,12 @@
         <v>303</v>
       </c>
       <c r="AR103" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:44">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104">
         <v>230.76923076923001</v>
@@ -16835,12 +16835,12 @@
         <v>420</v>
       </c>
       <c r="AR104" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:44">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105">
         <v>553.84615384615302</v>
@@ -16969,12 +16969,12 @@
         <v>530</v>
       </c>
       <c r="AR105" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:44">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B106">
         <v>1384.61538461538</v>
@@ -17103,12 +17103,12 @@
         <v>2135</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:44">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B107">
         <v>199.84917041538401</v>
@@ -17237,12 +17237,12 @@
         <v>72</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:44">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B108">
         <v>3692.3076923076901</v>
@@ -17371,12 +17371,12 @@
         <v>6164</v>
       </c>
       <c r="AR108" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:44">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109">
         <v>93.496841307692307</v>
@@ -17505,12 +17505,12 @@
         <v>117</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:44">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
@@ -17621,12 +17621,12 @@
         <v>350</v>
       </c>
       <c r="AR110" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:44">
       <c r="A111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111">
         <v>282.14356338461499</v>
@@ -17755,12 +17755,12 @@
         <v>704.25550021805395</v>
       </c>
       <c r="AR111" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:44">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112">
         <v>1.9376854153846099</v>
@@ -17889,12 +17889,12 @@
         <v>1.3918787088425999</v>
       </c>
       <c r="AR112" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:44">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD113">
         <v>0</v>
@@ -17939,12 +17939,12 @@
         <v>1.93347977798818</v>
       </c>
       <c r="AR113" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:44">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114">
         <v>454.52182952307601</v>
@@ -18073,12 +18073,12 @@
         <v>426</v>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:44">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
@@ -18189,12 +18189,12 @@
         <v>8</v>
       </c>
       <c r="AR115" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:44">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B116">
         <v>9.2307692307692299</v>
@@ -18323,12 +18323,12 @@
         <v>51.868682724829</v>
       </c>
       <c r="AR116" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:44">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H117" t="s">
         <v>9</v>
@@ -18439,12 +18439,12 @@
         <v>77</v>
       </c>
       <c r="AR117" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:44">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118">
         <v>27.208599276923</v>
@@ -18573,12 +18573,12 @@
         <v>266.631934695594</v>
       </c>
       <c r="AR118" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:44">
       <c r="A119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -18707,12 +18707,12 @@
         <v>0.403450708438578</v>
       </c>
       <c r="AR119" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:44">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B120">
         <v>14.7109843384615</v>
@@ -18841,12 +18841,12 @@
         <v>11.0833448856767</v>
       </c>
       <c r="AR120" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:44">
       <c r="A121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B121">
         <v>369.82248521538401</v>
@@ -18975,12 +18975,12 @@
         <v>31</v>
       </c>
       <c r="AR121" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:44">
       <c r="A122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -19091,12 +19091,12 @@
         <v>69</v>
       </c>
       <c r="AR122" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:44">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B123">
         <v>46.153846153846096</v>
@@ -19225,12 +19225,12 @@
         <v>611</v>
       </c>
       <c r="AR123" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:44">
       <c r="A124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -19359,12 +19359,12 @@
         <v>184.240814195105</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:44">
       <c r="A125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B125">
         <v>1.4344008923076901</v>
@@ -19493,12 +19493,12 @@
         <v>18</v>
       </c>
       <c r="AR125" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:44">
       <c r="A126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B126">
         <v>11.076923076923</v>
@@ -19627,12 +19627,12 @@
         <v>9.4602289212114297</v>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:44">
       <c r="A127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B127">
         <v>342.48607047692298</v>
@@ -19761,12 +19761,12 @@
         <v>2676</v>
       </c>
       <c r="AR127" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:44">
       <c r="A128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B128">
         <v>0.99570355384615294</v>
@@ -19895,12 +19895,12 @@
         <v>41.4949142216959</v>
       </c>
       <c r="AR128" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:44">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B129">
         <v>16.689485953846098</v>
@@ -20029,12 +20029,12 @@
         <v>67.501622416099707</v>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:44">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130">
         <v>50.556631430769201</v>
@@ -20163,12 +20163,12 @@
         <v>155.47434241977899</v>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:44">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -20297,12 +20297,12 @@
         <v>92.499999999999901</v>
       </c>
       <c r="AR131" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:44">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B132">
         <v>16.9737241846153</v>
@@ -20431,12 +20431,12 @@
         <v>20.441570121620799</v>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:44">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B133">
         <v>61.538461523076897</v>
@@ -20565,12 +20565,12 @@
         <v>112</v>
       </c>
       <c r="AR133" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:44">
       <c r="A134" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B134">
         <v>1153.8461538461499</v>
@@ -20699,12 +20699,12 @@
         <v>2803</v>
       </c>
       <c r="AR134" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:44">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V135">
         <v>4.8</v>
@@ -20773,12 +20773,12 @@
         <v>7.5900286090223403</v>
       </c>
       <c r="AR135" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:44">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -20889,12 +20889,12 @@
         <v>51.671141649408099</v>
       </c>
       <c r="AR136" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:44">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -21023,12 +21023,12 @@
         <v>45.017482117470401</v>
       </c>
       <c r="AR137" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:44">
       <c r="A138" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U138" t="s">
         <v>9</v>
@@ -21100,12 +21100,12 @@
         <v>14</v>
       </c>
       <c r="AR138" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:44">
       <c r="A139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -21234,12 +21234,12 @@
         <v>9.0748947835041296E-2</v>
       </c>
       <c r="AR139" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:44">
       <c r="A140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B140">
         <v>193.51013012307601</v>
@@ -21368,12 +21368,12 @@
         <v>813.06727951793505</v>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:44">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141">
         <v>80.781365215384596</v>
@@ -21502,12 +21502,12 @@
         <v>24</v>
       </c>
       <c r="AR141" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:44">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -21618,12 +21618,12 @@
         <v>40.298803441216897</v>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:44">
       <c r="A143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143">
         <v>4.8227074615384602</v>
@@ -21752,12 +21752,12 @@
         <v>3.6305212407123402</v>
       </c>
       <c r="AR143" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:44">
       <c r="A144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144">
         <v>9.6921901846153808</v>
@@ -21886,12 +21886,12 @@
         <v>103.73735823395999</v>
       </c>
       <c r="AR144" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:44">
       <c r="A145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B145">
         <v>784.61538461538396</v>
@@ -22020,12 +22020,12 @@
         <v>2378</v>
       </c>
       <c r="AR145" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:44">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B146">
         <v>65.240523184615299</v>
@@ -22154,12 +22154,12 @@
         <v>105.76271873052799</v>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:44">
       <c r="A147" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B147">
         <v>33.915205200000003</v>
@@ -22288,12 +22288,12 @@
         <v>29.846510801651601</v>
       </c>
       <c r="AR147" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:44">
       <c r="A148" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B148">
         <v>323.07692307692298</v>
@@ -22422,12 +22422,12 @@
         <v>547</v>
       </c>
       <c r="AR148" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:44">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B149">
         <v>13.043478276923</v>
@@ -22556,12 +22556,12 @@
         <v>17</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:44">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B150">
         <v>29.538461538461501</v>
@@ -22690,12 +22690,12 @@
         <v>28</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:44">
       <c r="A151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B151">
         <v>365.72653680000002</v>
@@ -22824,12 +22824,12 @@
         <v>524.99999999999898</v>
       </c>
       <c r="AR151" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:44">
       <c r="A152" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -22958,12 +22958,12 @@
         <v>0.49096787276842402</v>
       </c>
       <c r="AR152" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:44">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -23092,12 +23092,12 @@
         <v>0</v>
       </c>
       <c r="AR153" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:44">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -23208,20 +23208,20 @@
         <v>26.073136762874501</v>
       </c>
       <c r="AR154" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:44">
       <c r="A155" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AR155" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:44">
       <c r="A156" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156">
         <v>276.923076923076</v>
@@ -23350,12 +23350,12 @@
         <v>446</v>
       </c>
       <c r="AR156" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:44">
       <c r="A157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157">
         <v>98.076923076922995</v>
@@ -23484,12 +23484,12 @@
         <v>265</v>
       </c>
       <c r="AR157" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:44">
       <c r="A158" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B158">
         <v>318.264014446153</v>
@@ -23618,12 +23618,12 @@
         <v>259</v>
       </c>
       <c r="AR158" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:44">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -23734,12 +23734,12 @@
         <v>0</v>
       </c>
       <c r="AR159" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:44">
       <c r="A160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B160">
         <v>102.85714287692301</v>
@@ -23868,12 +23868,12 @@
         <v>254</v>
       </c>
       <c r="AR160" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:44">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B161">
         <v>49.9999999846153</v>
@@ -24002,12 +24002,12 @@
         <v>72.498866000000007</v>
       </c>
       <c r="AR161" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:44">
       <c r="A162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B162">
         <v>16.7678193230769</v>
@@ -24136,12 +24136,12 @@
         <v>25</v>
       </c>
       <c r="AR162" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:44">
       <c r="A163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B163">
         <v>348.05709752307598</v>
@@ -24270,12 +24270,12 @@
         <v>336</v>
       </c>
       <c r="AR163" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:44">
       <c r="A164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B164">
         <v>485.44632876922998</v>
@@ -24404,12 +24404,12 @@
         <v>804.00000011979796</v>
       </c>
       <c r="AR164" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:44">
       <c r="A165" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B165">
         <v>46.153846153846096</v>
@@ -24538,12 +24538,12 @@
         <v>574</v>
       </c>
       <c r="AR165" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:44">
       <c r="A166" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166">
         <v>230.76923076923001</v>
@@ -24672,12 +24672,12 @@
         <v>782</v>
       </c>
       <c r="AR166" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:44">
       <c r="A167" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B167">
         <v>375.84950261538398</v>
@@ -24806,12 +24806,12 @@
         <v>404.28751577049098</v>
       </c>
       <c r="AR167" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:44">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B168">
         <v>53.866338415384597</v>
@@ -24940,12 +24940,12 @@
         <v>3075</v>
       </c>
       <c r="AR168" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="1:44">
       <c r="A169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B169">
         <v>34.781019092307602</v>
@@ -25074,12 +25074,12 @@
         <v>0</v>
       </c>
       <c r="AR169" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:44">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -25208,12 +25208,12 @@
         <v>178.64940832185101</v>
       </c>
       <c r="AR170" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:44">
       <c r="A171" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -25324,12 +25324,12 @@
         <v>9913</v>
       </c>
       <c r="AR171" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:44">
       <c r="A172" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B172">
         <v>2.2292970461538402</v>
@@ -25458,12 +25458,12 @@
         <v>30</v>
       </c>
       <c r="AR172" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:44">
       <c r="A173" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -25592,12 +25592,12 @@
         <v>0</v>
       </c>
       <c r="AR173" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="174" spans="1:44">
       <c r="A174" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -25726,12 +25726,12 @@
         <v>4.6615788980548301</v>
       </c>
       <c r="AR174" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="1:44">
       <c r="A175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -25860,12 +25860,12 @@
         <v>26.889070035803801</v>
       </c>
       <c r="AR175" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="176" spans="1:44">
       <c r="A176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B176">
         <v>7.0819384615384597E-3</v>
@@ -25994,12 +25994,12 @@
         <v>0</v>
       </c>
       <c r="AR176" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:44">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -26128,12 +26128,12 @@
         <v>5.3631401741692002E-2</v>
       </c>
       <c r="AR177" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="178" spans="1:44">
       <c r="A178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -26262,12 +26262,12 @@
         <v>12.2340600792744</v>
       </c>
       <c r="AR178" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:44">
       <c r="A179" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -26396,12 +26396,12 @@
         <v>11.7879312231403</v>
       </c>
       <c r="AR179" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:44">
       <c r="A180" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B180">
         <v>780.44542726153804</v>
@@ -26530,12 +26530,12 @@
         <v>1725</v>
       </c>
       <c r="AR180" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:44">
       <c r="A181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B181">
         <v>116.686390523076</v>
@@ -26664,12 +26664,12 @@
         <v>143</v>
       </c>
       <c r="AR181" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:44">
       <c r="A182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U182" t="s">
         <v>9</v>
@@ -26741,12 +26741,12 @@
         <v>132.299108023884</v>
       </c>
       <c r="AR182" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:44">
       <c r="A183" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B183">
         <v>10.411111661538399</v>
@@ -26875,12 +26875,12 @@
         <v>32.239112123391799</v>
       </c>
       <c r="AR183" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:44">
       <c r="A184" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B184">
         <v>11.9225874461538</v>
@@ -27009,12 +27009,12 @@
         <v>8.1200410977496702</v>
       </c>
       <c r="AR184" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:44">
       <c r="A185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B185">
         <v>796.84418146153803</v>
@@ -27143,12 +27143,12 @@
         <v>4944.8032783732597</v>
       </c>
       <c r="AR185" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:44">
       <c r="A186" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F186" t="s">
         <v>9</v>
@@ -27265,12 +27265,12 @@
         <v>22</v>
       </c>
       <c r="AR186" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:44">
       <c r="A187" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -27381,12 +27381,12 @@
         <v>12</v>
       </c>
       <c r="AR187" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:44">
       <c r="A188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -27515,12 +27515,12 @@
         <v>3.1891604351007299</v>
       </c>
       <c r="AR188" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:44">
       <c r="A189" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B189">
         <v>45.057355430769199</v>
@@ -27649,12 +27649,12 @@
         <v>43.298858766224903</v>
       </c>
       <c r="AR189" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:44">
       <c r="A190" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B190">
         <v>493.43232438461501</v>
@@ -27783,12 +27783,12 @@
         <v>1063</v>
       </c>
       <c r="AR190" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:44">
       <c r="A191" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B191">
         <v>600</v>
@@ -27917,12 +27917,12 @@
         <v>4450</v>
       </c>
       <c r="AR191" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:44">
       <c r="A192" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -28033,12 +28033,12 @@
         <v>88.662144099622907</v>
       </c>
       <c r="AR192" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="193" spans="1:44">
       <c r="A193" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B193">
         <v>2169.23076923076</v>
@@ -28167,12 +28167,12 @@
         <v>3344</v>
       </c>
       <c r="AR193" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:44">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B194">
         <v>120.52857096923</v>
@@ -28301,12 +28301,12 @@
         <v>248</v>
       </c>
       <c r="AR194" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:44">
       <c r="A195" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B195">
         <v>65.274725261538407</v>
@@ -28435,12 +28435,12 @@
         <v>150</v>
       </c>
       <c r="AR195" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="1:44">
       <c r="A196" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B196">
         <v>22.6811637692307</v>
@@ -28569,12 +28569,12 @@
         <v>25</v>
       </c>
       <c r="AR196" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:44">
       <c r="A197" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B197">
         <v>415.38461538461502</v>
@@ -28703,12 +28703,12 @@
         <v>412</v>
       </c>
       <c r="AR197" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" spans="1:44">
       <c r="A198" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B198">
         <v>738.461538461538</v>
@@ -28837,12 +28837,12 @@
         <v>785</v>
       </c>
       <c r="AR198" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:44">
       <c r="A199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B199">
         <v>200.364298707692</v>
@@ -28971,12 +28971,12 @@
         <v>94.999999999999901</v>
       </c>
       <c r="AR199" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:44">
       <c r="A200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B200">
         <v>520.55784927692298</v>
@@ -29105,12 +29105,12 @@
         <v>2022.0459459394699</v>
       </c>
       <c r="AR200" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="1:44">
       <c r="A201" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -29221,12 +29221,12 @@
         <v>27</v>
       </c>
       <c r="AR201" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:44">
       <c r="A202" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B202">
         <v>63.260021999999999</v>
@@ -29355,12 +29355,12 @@
         <v>164.22361166146001</v>
       </c>
       <c r="AR202" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:44">
       <c r="A203" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B203">
         <v>1058.99734070769</v>
@@ -29489,12 +29489,12 @@
         <v>1407.6788250693501</v>
       </c>
       <c r="AR203" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="204" spans="1:44">
       <c r="A204" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B204">
         <v>34.233316338461499</v>
@@ -29623,12 +29623,12 @@
         <v>50.408107975251902</v>
       </c>
       <c r="AR204" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:44">
       <c r="A205" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U205" t="s">
         <v>9</v>
@@ -29700,12 +29700,12 @@
         <v>3.1126008015902902</v>
       </c>
       <c r="AR205" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:44">
       <c r="A206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B206">
         <v>15.769230784615299</v>
@@ -29834,12 +29834,12 @@
         <v>71.531478272211601</v>
       </c>
       <c r="AR206" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:44">
       <c r="A207" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B207">
         <v>3.2283419076922999</v>
@@ -29968,12 +29968,12 @@
         <v>3.13063048438962</v>
       </c>
       <c r="AR207" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:44">
       <c r="A208" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B208">
         <v>201.39860141538401</v>
@@ -30102,12 +30102,12 @@
         <v>126</v>
       </c>
       <c r="AR208" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:44">
       <c r="A209" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B209">
         <v>78.0487805076923</v>
@@ -30236,12 +30236,12 @@
         <v>95.999999999999901</v>
       </c>
       <c r="AR209" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:44">
       <c r="A210" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B210">
         <v>138.461538461538</v>
@@ -30370,12 +30370,12 @@
         <v>3505</v>
       </c>
       <c r="AR210" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:44">
       <c r="A211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -30486,12 +30486,12 @@
         <v>261</v>
       </c>
       <c r="AR211" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:44">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -30620,20 +30620,20 @@
         <v>0</v>
       </c>
       <c r="AR212" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:44">
       <c r="A213" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AR213" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="214" spans="1:44">
       <c r="A214" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B214">
         <v>6.3461538461538396</v>
@@ -30762,20 +30762,20 @@
         <v>13.8083228247162</v>
       </c>
       <c r="AR214" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="215" spans="1:44">
       <c r="A215" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AR215" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:44">
       <c r="A216" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B216">
         <v>172.83142389230699</v>
@@ -30904,12 +30904,12 @@
         <v>82.537408627022998</v>
       </c>
       <c r="AR216" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:44">
       <c r="A217" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B217">
         <v>10.513404599999999</v>
@@ -31038,12 +31038,12 @@
         <v>108.811572869964</v>
       </c>
       <c r="AR217" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:44">
       <c r="A218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -31154,12 +31154,12 @@
         <v>133.91981005406399</v>
       </c>
       <c r="AR218" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:44">
       <c r="A219" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B219">
         <v>266.65679049230698</v>
@@ -31288,12 +31288,12 @@
         <v>4746.99999999999</v>
       </c>
       <c r="AR219" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:44">
       <c r="A220" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B220">
         <v>4984.6153846153802</v>
@@ -31422,12 +31422,12 @@
         <v>4904</v>
       </c>
       <c r="AR220" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:44">
       <c r="A221" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B221">
         <v>39268.726355611601</v>
@@ -31556,12 +31556,12 @@
         <v>273.56354850000002</v>
       </c>
       <c r="AR221" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:44">
       <c r="A222" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -31690,12 +31690,12 @@
         <v>47</v>
       </c>
       <c r="AR222" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:44">
       <c r="A223" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -31806,12 +31806,12 @@
         <v>123</v>
       </c>
       <c r="AR223" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:44">
       <c r="A224" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -31940,12 +31940,12 @@
         <v>10.603743423777701</v>
       </c>
       <c r="AR224" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:44">
       <c r="A225" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B225">
         <v>427.94692846153799</v>
@@ -32074,12 +32074,12 @@
         <v>186</v>
       </c>
       <c r="AR225" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:44">
       <c r="A226" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -32208,12 +32208,12 @@
         <v>1089</v>
       </c>
       <c r="AR226" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:44">
       <c r="A227" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B227">
         <v>359.37770095384599</v>
@@ -32342,12 +32342,12 @@
         <v>361.31778058007501</v>
       </c>
       <c r="AR227" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:44">
       <c r="A228" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B228">
         <v>1.7566718307692299</v>
@@ -32476,12 +32476,12 @@
         <v>4.0298364141191003</v>
       </c>
       <c r="AR228" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:44">
       <c r="A229" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B229">
         <v>112.60426320000001</v>
@@ -32610,12 +32610,12 @@
         <v>72.979247287515705</v>
       </c>
       <c r="AR229" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:44">
       <c r="A230" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B230">
         <v>55.868905661538399</v>
@@ -32744,12 +32744,12 @@
         <v>15</v>
       </c>
       <c r="AR230" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:44">
       <c r="A231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B231">
         <v>93.167701846153804</v>
@@ -32878,7 +32878,7 @@
         <v>50.375793643688702</v>
       </c>
       <c r="AR231" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -32896,7 +32896,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32912,13 +32912,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" t="s">
         <v>247</v>
-      </c>
-      <c r="D1" t="s">
-        <v>248</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
